--- a/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
+++ b/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>MARCON</t>
+          <t>CEKU</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>NICHOLAS</t>
+          <t>LEDION</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>CEKU</t>
+          <t>MARCON</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>LEDION</t>
+          <t>NICHOLAS</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>

--- a/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
+++ b/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>POPESCU</t>
+          <t>CERCARIOLO</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>CEKU</t>
+          <t>JEMENEZ TONON</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>LEDION</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>MARCON</t>
+          <t>CEKU</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>NICHOLAS</t>
+          <t>LEDION</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>CERCARIOLO</t>
+          <t>MARCON</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>NICHOLAS</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>TURCHET</t>
+          <t>POPESCU</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>DAVIDE</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>JEMENEZ TONON</t>
+          <t>TURCHET</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>DAVIDE</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>

--- a/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
+++ b/risultato/FASCIA C - GIALLOARANCIO-ARANCIO POOL-1.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>CERCARIOLO</t>
+          <t>JEMENEZ TONON</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>SAMUEL</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>JEMENEZ TONON</t>
+          <t>TURCHET</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>DAVIDE</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>CEKU</t>
+          <t>MARCON</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>LEDION</t>
+          <t>NICHOLAS</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>MARCON</t>
+          <t>CEKU</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>NICHOLAS</t>
+          <t>LEDION</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>POPESCU</t>
+          <t>CERCARIOLO</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>LEONARDO</t>
+          <t>SAMUEL</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>TURCHET</t>
+          <t>POPESCU</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>DAVIDE</t>
+          <t>LEONARDO</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
